--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="H2">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="I2">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="J2">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.87463666666667</v>
+        <v>101.240341</v>
       </c>
       <c r="N2">
-        <v>191.62391</v>
+        <v>303.721023</v>
       </c>
       <c r="O2">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="P2">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="Q2">
-        <v>720.2778478555545</v>
+        <v>2037.499220310829</v>
       </c>
       <c r="R2">
-        <v>6482.50063069999</v>
+        <v>18337.49298279746</v>
       </c>
       <c r="S2">
-        <v>0.01993406148204598</v>
+        <v>0.1214348745567935</v>
       </c>
       <c r="T2">
-        <v>0.01993406148204598</v>
+        <v>0.1214348745567935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="H3">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="I3">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="J3">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>203.41658</v>
       </c>
       <c r="O3">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354067</v>
       </c>
       <c r="P3">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354066</v>
       </c>
       <c r="Q3">
-        <v>764.6042524679577</v>
+        <v>1364.611244406007</v>
       </c>
       <c r="R3">
-        <v>6881.438272211621</v>
+        <v>12281.50119965406</v>
       </c>
       <c r="S3">
-        <v>0.02116081762545981</v>
+        <v>0.08133077727409063</v>
       </c>
       <c r="T3">
-        <v>0.02116081762545981</v>
+        <v>0.08133077727409062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="H4">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="I4">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="J4">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06932833333333334</v>
+        <v>0.08087433333333333</v>
       </c>
       <c r="N4">
-        <v>0.207985</v>
+        <v>0.242623</v>
       </c>
       <c r="O4">
-        <v>0.0004812534780591592</v>
+        <v>0.0004567568897838376</v>
       </c>
       <c r="P4">
-        <v>0.0004812534780591591</v>
+        <v>0.0004567568897838375</v>
       </c>
       <c r="Q4">
-        <v>0.7817760747405557</v>
+        <v>1.627625800962333</v>
       </c>
       <c r="R4">
-        <v>7.035984672665001</v>
+        <v>14.648632208661</v>
       </c>
       <c r="S4">
-        <v>2.163605667655635E-05</v>
+        <v>9.700643465036965E-05</v>
       </c>
       <c r="T4">
-        <v>2.163605667655635E-05</v>
+        <v>9.700643465036964E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="H5">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="I5">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="J5">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.909819</v>
+        <v>7.453554333333333</v>
       </c>
       <c r="N5">
-        <v>35.729457</v>
+        <v>22.360663</v>
       </c>
       <c r="O5">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387389</v>
       </c>
       <c r="P5">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387388</v>
       </c>
       <c r="Q5">
-        <v>134.3002362962303</v>
+        <v>150.0055313198824</v>
       </c>
       <c r="R5">
-        <v>1208.702126666073</v>
+        <v>1350.049781878941</v>
       </c>
       <c r="S5">
-        <v>0.003716828409138077</v>
+        <v>0.008940323852431297</v>
       </c>
       <c r="T5">
-        <v>0.003716828409138078</v>
+        <v>0.008940323852431297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="H6">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="I6">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="J6">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.331405</v>
+        <v>0.3966616666666667</v>
       </c>
       <c r="N6">
-        <v>0.9942150000000001</v>
+        <v>1.189985</v>
       </c>
       <c r="O6">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792798</v>
       </c>
       <c r="P6">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792797</v>
       </c>
       <c r="Q6">
-        <v>3.737065173681667</v>
+        <v>7.982962409821668</v>
       </c>
       <c r="R6">
-        <v>33.633586563135</v>
+        <v>71.84666168839502</v>
       </c>
       <c r="S6">
-        <v>0.0001034252089750822</v>
+        <v>0.0004757842502047215</v>
       </c>
       <c r="T6">
-        <v>0.0001034252089750822</v>
+        <v>0.0004757842502047215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="H7">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="I7">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="J7">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06711766666666667</v>
+        <v>0.08514033333333333</v>
       </c>
       <c r="N7">
-        <v>0.201353</v>
+        <v>0.255421</v>
       </c>
       <c r="O7">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732255</v>
       </c>
       <c r="P7">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732254</v>
       </c>
       <c r="Q7">
-        <v>0.7568476475574445</v>
+        <v>1.713480625116333</v>
       </c>
       <c r="R7">
-        <v>6.811628828017001</v>
+        <v>15.421325626047</v>
       </c>
       <c r="S7">
-        <v>2.094614957806886E-05</v>
+        <v>0.000102123378842204</v>
       </c>
       <c r="T7">
-        <v>2.094614957806886E-05</v>
+        <v>0.000102123378842204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>85.551776</v>
       </c>
       <c r="I8">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="J8">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.87463666666667</v>
+        <v>101.240341</v>
       </c>
       <c r="N8">
-        <v>191.62391</v>
+        <v>303.721023</v>
       </c>
       <c r="O8">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="P8">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="Q8">
-        <v>1821.529536062684</v>
+        <v>2887.096991798539</v>
       </c>
       <c r="R8">
-        <v>16393.76582456416</v>
+        <v>25983.87292618685</v>
       </c>
       <c r="S8">
-        <v>0.0504117707789314</v>
+        <v>0.1720708688069421</v>
       </c>
       <c r="T8">
-        <v>0.0504117707789314</v>
+        <v>0.1720708688069421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>85.551776</v>
       </c>
       <c r="I9">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="J9">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>203.41658</v>
       </c>
       <c r="O9">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354067</v>
       </c>
       <c r="P9">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354066</v>
       </c>
       <c r="Q9">
         <v>1933.627742982898</v>
@@ -1013,10 +1013,10 @@
         <v>17402.64968684608</v>
       </c>
       <c r="S9">
-        <v>0.05351414655715021</v>
+        <v>0.1152441385341207</v>
       </c>
       <c r="T9">
-        <v>0.05351414655715021</v>
+        <v>0.1152441385341206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>85.551776</v>
       </c>
       <c r="I10">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="J10">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.06932833333333334</v>
+        <v>0.08087433333333333</v>
       </c>
       <c r="N10">
-        <v>0.207985</v>
+        <v>0.242623</v>
       </c>
       <c r="O10">
-        <v>0.0004812534780591592</v>
+        <v>0.0004567568897838376</v>
       </c>
       <c r="P10">
-        <v>0.0004812534780591591</v>
+        <v>0.0004567568897838375</v>
       </c>
       <c r="Q10">
-        <v>1.977054014595556</v>
+        <v>2.306314283160888</v>
       </c>
       <c r="R10">
-        <v>17.79348613136</v>
+        <v>20.756828548448</v>
       </c>
       <c r="S10">
-        <v>5.471599105485348E-05</v>
+        <v>0.0001374562418833507</v>
       </c>
       <c r="T10">
-        <v>5.471599105485347E-05</v>
+        <v>0.0001374562418833507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>85.551776</v>
       </c>
       <c r="I11">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="J11">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.909819</v>
+        <v>7.453554333333333</v>
       </c>
       <c r="N11">
-        <v>35.729457</v>
+        <v>22.360663</v>
       </c>
       <c r="O11">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387389</v>
       </c>
       <c r="P11">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387388</v>
       </c>
       <c r="Q11">
-        <v>339.6353890961814</v>
+        <v>212.5549369097209</v>
       </c>
       <c r="R11">
-        <v>3056.718501865632</v>
+        <v>1912.994432187488</v>
       </c>
       <c r="S11">
-        <v>0.009399584823938129</v>
+        <v>0.01266826600116267</v>
       </c>
       <c r="T11">
-        <v>0.00939958482393813</v>
+        <v>0.01266826600116267</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>85.551776</v>
       </c>
       <c r="I12">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="J12">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.331405</v>
+        <v>0.3966616666666667</v>
       </c>
       <c r="N12">
-        <v>0.9942150000000001</v>
+        <v>1.189985</v>
       </c>
       <c r="O12">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792798</v>
       </c>
       <c r="P12">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792797</v>
       </c>
       <c r="Q12">
-        <v>9.450762108426666</v>
+        <v>11.31170335148444</v>
       </c>
       <c r="R12">
-        <v>85.05685897584002</v>
+        <v>101.80533016336</v>
       </c>
       <c r="S12">
-        <v>0.0002615547229204084</v>
+        <v>0.0006741770813053959</v>
       </c>
       <c r="T12">
-        <v>0.0002615547229204085</v>
+        <v>0.0006741770813053959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>85.551776</v>
       </c>
       <c r="I13">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="J13">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06711766666666667</v>
+        <v>0.08514033333333333</v>
       </c>
       <c r="N13">
-        <v>0.201353</v>
+        <v>0.255421</v>
       </c>
       <c r="O13">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732255</v>
       </c>
       <c r="P13">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732254</v>
       </c>
       <c r="Q13">
-        <v>1.914011861436445</v>
+        <v>2.427968908632889</v>
       </c>
       <c r="R13">
-        <v>17.226106752928</v>
+        <v>21.851720177696</v>
       </c>
       <c r="S13">
-        <v>5.297126690322818E-05</v>
+        <v>0.0001447068528461329</v>
       </c>
       <c r="T13">
-        <v>5.297126690322818E-05</v>
+        <v>0.000144706852846133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="H14">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="I14">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="J14">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.87463666666667</v>
+        <v>101.240341</v>
       </c>
       <c r="N14">
-        <v>191.62391</v>
+        <v>303.721023</v>
       </c>
       <c r="O14">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="P14">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="Q14">
-        <v>340.4207064852766</v>
+        <v>446.7413966577817</v>
       </c>
       <c r="R14">
-        <v>3063.78635836749</v>
+        <v>4020.672569920035</v>
       </c>
       <c r="S14">
-        <v>0.009421318888318637</v>
+        <v>0.02662576992504978</v>
       </c>
       <c r="T14">
-        <v>0.009421318888318637</v>
+        <v>0.02662576992504979</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="H15">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="I15">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="J15">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>203.41658</v>
       </c>
       <c r="O15">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354067</v>
       </c>
       <c r="P15">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354066</v>
       </c>
       <c r="Q15">
-        <v>361.3704358418466</v>
+        <v>299.2042044206778</v>
       </c>
       <c r="R15">
-        <v>3252.33392257662</v>
+        <v>2692.8378397861</v>
       </c>
       <c r="S15">
-        <v>0.01000111346935348</v>
+        <v>0.01783255898627895</v>
       </c>
       <c r="T15">
-        <v>0.01000111346935348</v>
+        <v>0.01783255898627894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="H16">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="I16">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="J16">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.06932833333333334</v>
+        <v>0.08087433333333333</v>
       </c>
       <c r="N16">
-        <v>0.207985</v>
+        <v>0.242623</v>
       </c>
       <c r="O16">
-        <v>0.0004812534780591592</v>
+        <v>0.0004567568897838376</v>
       </c>
       <c r="P16">
-        <v>0.0004812534780591591</v>
+        <v>0.0004567568897838375</v>
       </c>
       <c r="Q16">
-        <v>0.3694862537683333</v>
+        <v>0.3568726880038889</v>
       </c>
       <c r="R16">
-        <v>3.325376283915</v>
+        <v>3.211854192035</v>
       </c>
       <c r="S16">
-        <v>1.022572292250456E-05</v>
+        <v>2.126959837260048E-05</v>
       </c>
       <c r="T16">
-        <v>1.022572292250456E-05</v>
+        <v>2.126959837260048E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="H17">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="I17">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="J17">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.909819</v>
+        <v>7.453554333333333</v>
       </c>
       <c r="N17">
-        <v>35.729457</v>
+        <v>22.360663</v>
       </c>
       <c r="O17">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387389</v>
       </c>
       <c r="P17">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387388</v>
       </c>
       <c r="Q17">
-        <v>63.473535188147</v>
+        <v>32.89016255820389</v>
       </c>
       <c r="R17">
-        <v>571.261816693323</v>
+        <v>296.0114630238349</v>
       </c>
       <c r="S17">
-        <v>0.001756662872099147</v>
+        <v>0.00196025241364202</v>
       </c>
       <c r="T17">
-        <v>0.001756662872099148</v>
+        <v>0.00196025241364202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="H18">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="I18">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="J18">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.331405</v>
+        <v>0.3966616666666667</v>
       </c>
       <c r="N18">
-        <v>0.9942150000000001</v>
+        <v>1.189985</v>
       </c>
       <c r="O18">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792798</v>
       </c>
       <c r="P18">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792797</v>
       </c>
       <c r="Q18">
-        <v>1.766227255765</v>
+        <v>1.750341664369445</v>
       </c>
       <c r="R18">
-        <v>15.896045301885</v>
+        <v>15.753074979325</v>
       </c>
       <c r="S18">
-        <v>4.888125160659603E-05</v>
+        <v>0.0001043202953529508</v>
       </c>
       <c r="T18">
-        <v>4.888125160659604E-05</v>
+        <v>0.0001043202953529508</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="H19">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="I19">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="J19">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.06711766666666667</v>
+        <v>0.08514033333333333</v>
       </c>
       <c r="N19">
-        <v>0.201353</v>
+        <v>0.255421</v>
       </c>
       <c r="O19">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732255</v>
       </c>
       <c r="P19">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732254</v>
       </c>
       <c r="Q19">
-        <v>0.3577044770296667</v>
+        <v>0.3756971879938889</v>
       </c>
       <c r="R19">
-        <v>3.219340293267</v>
+        <v>3.381274691945</v>
       </c>
       <c r="S19">
-        <v>9.899656165661282E-06</v>
+        <v>2.239153784236444E-05</v>
       </c>
       <c r="T19">
-        <v>9.899656165661282E-06</v>
+        <v>2.239153784236444E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="H20">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="I20">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="J20">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>63.87463666666667</v>
+        <v>101.240341</v>
       </c>
       <c r="N20">
-        <v>191.62391</v>
+        <v>303.721023</v>
       </c>
       <c r="O20">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="P20">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="Q20">
-        <v>12559.89028172089</v>
+        <v>3122.612700787862</v>
       </c>
       <c r="R20">
-        <v>113039.012535488</v>
+        <v>28103.51430709076</v>
       </c>
       <c r="S20">
-        <v>0.3476014510636256</v>
+        <v>0.1861075959340866</v>
       </c>
       <c r="T20">
-        <v>0.3476014510636256</v>
+        <v>0.1861075959340866</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="H21">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="I21">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="J21">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>203.41658</v>
       </c>
       <c r="O21">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354067</v>
       </c>
       <c r="P21">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354066</v>
       </c>
       <c r="Q21">
-        <v>13332.83475054288</v>
+        <v>2091.363943084144</v>
       </c>
       <c r="R21">
-        <v>119995.5127548859</v>
+        <v>18822.2754877573</v>
       </c>
       <c r="S21">
-        <v>0.3689930884846264</v>
+        <v>0.1246452099462796</v>
       </c>
       <c r="T21">
-        <v>0.3689930884846264</v>
+        <v>0.1246452099462795</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="H22">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="I22">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="J22">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.06932833333333334</v>
+        <v>0.08087433333333333</v>
       </c>
       <c r="N22">
-        <v>0.207985</v>
+        <v>0.242623</v>
       </c>
       <c r="O22">
-        <v>0.0004812534780591592</v>
+        <v>0.0004567568897838376</v>
       </c>
       <c r="P22">
-        <v>0.0004812534780591591</v>
+        <v>0.0004567568897838375</v>
       </c>
       <c r="Q22">
-        <v>13.63226948163056</v>
+        <v>2.494452487417222</v>
       </c>
       <c r="R22">
-        <v>122.690425334675</v>
+        <v>22.450072386755</v>
       </c>
       <c r="S22">
-        <v>0.0003772800993334714</v>
+        <v>0.0001486692715647672</v>
       </c>
       <c r="T22">
-        <v>0.0003772800993334713</v>
+        <v>0.0001486692715647671</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="H23">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="I23">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="J23">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.909819</v>
+        <v>7.453554333333333</v>
       </c>
       <c r="N23">
-        <v>35.729457</v>
+        <v>22.360663</v>
       </c>
       <c r="O23">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387389</v>
       </c>
       <c r="P23">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387388</v>
       </c>
       <c r="Q23">
-        <v>2341.868818695249</v>
+        <v>229.8941627160172</v>
       </c>
       <c r="R23">
-        <v>21076.81936825724</v>
+        <v>2069.047464444155</v>
       </c>
       <c r="S23">
-        <v>0.06481242919485056</v>
+        <v>0.01370168318714731</v>
       </c>
       <c r="T23">
-        <v>0.06481242919485056</v>
+        <v>0.01370168318714731</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="H24">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="I24">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="J24">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.331405</v>
+        <v>0.3966616666666667</v>
       </c>
       <c r="N24">
-        <v>0.9942150000000001</v>
+        <v>1.189985</v>
       </c>
       <c r="O24">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792798</v>
       </c>
       <c r="P24">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792797</v>
       </c>
       <c r="Q24">
-        <v>65.16530904959167</v>
+        <v>12.23445857663611</v>
       </c>
       <c r="R24">
-        <v>586.487781446325</v>
+        <v>110.110127189725</v>
       </c>
       <c r="S24">
-        <v>0.001803483587560772</v>
+        <v>0.000729173256958324</v>
       </c>
       <c r="T24">
-        <v>0.001803483587560772</v>
+        <v>0.000729173256958324</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="H25">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="I25">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="J25">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.06711766666666667</v>
+        <v>0.08514033333333333</v>
       </c>
       <c r="N25">
-        <v>0.201353</v>
+        <v>0.255421</v>
       </c>
       <c r="O25">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732255</v>
       </c>
       <c r="P25">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732254</v>
       </c>
       <c r="Q25">
-        <v>13.19757846447945</v>
+        <v>2.626031121487222</v>
       </c>
       <c r="R25">
-        <v>118.778206180315</v>
+        <v>23.634280093385</v>
       </c>
       <c r="S25">
-        <v>0.0003652498009043559</v>
+        <v>0.0001565113530553344</v>
       </c>
       <c r="T25">
-        <v>0.0003652498009043559</v>
+        <v>0.0001565113530553344</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="H26">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="I26">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="J26">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>63.87463666666667</v>
+        <v>101.240341</v>
       </c>
       <c r="N26">
-        <v>191.62391</v>
+        <v>303.721023</v>
       </c>
       <c r="O26">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="P26">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="Q26">
-        <v>214.3537846240156</v>
+        <v>346.6492223650627</v>
       </c>
       <c r="R26">
-        <v>1929.18406161614</v>
+        <v>3119.843001285564</v>
       </c>
       <c r="S26">
-        <v>0.005932351708893968</v>
+        <v>0.02066028021678928</v>
       </c>
       <c r="T26">
-        <v>0.005932351708893967</v>
+        <v>0.02066028021678929</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="H27">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="I27">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="J27">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>203.41658</v>
       </c>
       <c r="O27">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354067</v>
       </c>
       <c r="P27">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354066</v>
       </c>
       <c r="Q27">
-        <v>227.5452670717022</v>
+        <v>232.1676602319378</v>
       </c>
       <c r="R27">
-        <v>2047.90740364532</v>
+        <v>2089.50894208744</v>
       </c>
       <c r="S27">
-        <v>0.006297432799384829</v>
+        <v>0.01383718355097512</v>
       </c>
       <c r="T27">
-        <v>0.006297432799384829</v>
+        <v>0.01383718355097512</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="H28">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="I28">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="J28">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.06932833333333334</v>
+        <v>0.08087433333333333</v>
       </c>
       <c r="N28">
-        <v>0.207985</v>
+        <v>0.242623</v>
       </c>
       <c r="O28">
-        <v>0.0004812534780591592</v>
+        <v>0.0004567568897838376</v>
       </c>
       <c r="P28">
-        <v>0.0004812534780591591</v>
+        <v>0.0004567568897838375</v>
       </c>
       <c r="Q28">
-        <v>0.2326555798544445</v>
+        <v>0.2769155504848889</v>
       </c>
       <c r="R28">
-        <v>2.09390021869</v>
+        <v>2.492239954364</v>
       </c>
       <c r="S28">
-        <v>6.438863345259535E-06</v>
+        <v>1.650415607561702E-05</v>
       </c>
       <c r="T28">
-        <v>6.438863345259533E-06</v>
+        <v>1.650415607561702E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="H29">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="I29">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="J29">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.909819</v>
+        <v>7.453554333333333</v>
       </c>
       <c r="N29">
-        <v>35.729457</v>
+        <v>22.360663</v>
       </c>
       <c r="O29">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387389</v>
       </c>
       <c r="P29">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387388</v>
       </c>
       <c r="Q29">
-        <v>39.96758197090867</v>
+        <v>25.52113898456489</v>
       </c>
       <c r="R29">
-        <v>359.708237738178</v>
+        <v>229.690250861084</v>
       </c>
       <c r="S29">
-        <v>0.001106123475362775</v>
+        <v>0.001521058894277438</v>
       </c>
       <c r="T29">
-        <v>0.001106123475362775</v>
+        <v>0.001521058894277438</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="H30">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="I30">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="J30">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.331405</v>
+        <v>0.3966616666666667</v>
       </c>
       <c r="N30">
-        <v>0.9942150000000001</v>
+        <v>1.189985</v>
       </c>
       <c r="O30">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792798</v>
       </c>
       <c r="P30">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792797</v>
       </c>
       <c r="Q30">
-        <v>1.112145911123333</v>
+        <v>1.358178537664445</v>
       </c>
       <c r="R30">
-        <v>10.00931320011</v>
+        <v>12.22360683898</v>
       </c>
       <c r="S30">
-        <v>3.077921254324691E-05</v>
+        <v>8.094738820162607E-05</v>
       </c>
       <c r="T30">
-        <v>3.077921254324691E-05</v>
+        <v>8.094738820162607E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="H31">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="I31">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="J31">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.06711766666666667</v>
+        <v>0.08514033333333333</v>
       </c>
       <c r="N31">
-        <v>0.201353</v>
+        <v>0.255421</v>
       </c>
       <c r="O31">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732255</v>
       </c>
       <c r="P31">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732254</v>
       </c>
       <c r="Q31">
-        <v>0.2252369111735556</v>
+        <v>0.2915224311808889</v>
       </c>
       <c r="R31">
-        <v>2.027132200562</v>
+        <v>2.623701880628</v>
       </c>
       <c r="S31">
-        <v>6.233547857576475E-06</v>
+        <v>1.737472559893405E-05</v>
       </c>
       <c r="T31">
-        <v>6.233547857576474E-06</v>
+        <v>1.737472559893405E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="H32">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="I32">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="J32">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>63.87463666666667</v>
+        <v>101.240341</v>
       </c>
       <c r="N32">
-        <v>191.62391</v>
+        <v>303.721023</v>
       </c>
       <c r="O32">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="P32">
-        <v>0.4433957889597581</v>
+        <v>0.5717787259552697</v>
       </c>
       <c r="Q32">
-        <v>364.7568791806399</v>
+        <v>753.0094916502204</v>
       </c>
       <c r="R32">
-        <v>3282.811912625759</v>
+        <v>6777.085424851984</v>
       </c>
       <c r="S32">
-        <v>0.01009483503794253</v>
+        <v>0.04487933651560837</v>
       </c>
       <c r="T32">
-        <v>0.01009483503794253</v>
+        <v>0.04487933651560837</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="H33">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="I33">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="J33">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>203.41658</v>
       </c>
       <c r="O33">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354067</v>
       </c>
       <c r="P33">
-        <v>0.4706826772118143</v>
+        <v>0.3829477189354066</v>
       </c>
       <c r="Q33">
-        <v>387.2042736963199</v>
+        <v>504.3266810642422</v>
       </c>
       <c r="R33">
-        <v>3484.838463266879</v>
+        <v>4538.94012957818</v>
       </c>
       <c r="S33">
-        <v>0.01071607827583959</v>
+        <v>0.0300578506436618</v>
       </c>
       <c r="T33">
-        <v>0.01071607827583959</v>
+        <v>0.0300578506436618</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="H34">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="I34">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="J34">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.06932833333333334</v>
+        <v>0.08087433333333333</v>
       </c>
       <c r="N34">
-        <v>0.207985</v>
+        <v>0.242623</v>
       </c>
       <c r="O34">
-        <v>0.0004812534780591592</v>
+        <v>0.0004567568897838376</v>
       </c>
       <c r="P34">
-        <v>0.0004812534780591591</v>
+        <v>0.0004567568897838375</v>
       </c>
       <c r="Q34">
-        <v>0.3959002794399999</v>
+        <v>0.6015303783981111</v>
       </c>
       <c r="R34">
-        <v>3.563102514959999</v>
+        <v>5.413773405583</v>
       </c>
       <c r="S34">
-        <v>1.095674472651392E-05</v>
+        <v>3.585118723713258E-05</v>
       </c>
       <c r="T34">
-        <v>1.095674472651392E-05</v>
+        <v>3.585118723713258E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="H35">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="I35">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="J35">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.909819</v>
+        <v>7.453554333333333</v>
       </c>
       <c r="N35">
-        <v>35.729457</v>
+        <v>22.360663</v>
       </c>
       <c r="O35">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387389</v>
       </c>
       <c r="P35">
-        <v>0.0826738728774439</v>
+        <v>0.04209570768387388</v>
       </c>
       <c r="Q35">
-        <v>68.01116431732798</v>
+        <v>55.43834704715811</v>
       </c>
       <c r="R35">
-        <v>612.1004788559519</v>
+        <v>498.945123424423</v>
       </c>
       <c r="S35">
-        <v>0.001882244102055224</v>
+        <v>0.003304123335213161</v>
       </c>
       <c r="T35">
-        <v>0.001882244102055224</v>
+        <v>0.003304123335213161</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="H36">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="I36">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="J36">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.331405</v>
+        <v>0.3966616666666667</v>
       </c>
       <c r="N36">
-        <v>0.9942150000000001</v>
+        <v>1.189985</v>
       </c>
       <c r="O36">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792798</v>
       </c>
       <c r="P36">
-        <v>0.002300499683576157</v>
+        <v>0.002240240403792797</v>
       </c>
       <c r="Q36">
-        <v>1.89249222936</v>
+        <v>2.950306143020556</v>
       </c>
       <c r="R36">
-        <v>17.03243006424</v>
+        <v>26.552755287185</v>
       </c>
       <c r="S36">
-        <v>5.23756999700509E-05</v>
+        <v>0.0001758381317697795</v>
       </c>
       <c r="T36">
-        <v>5.237569997005091E-05</v>
+        <v>0.0001758381317697795</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="H37">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="I37">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="J37">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.06711766666666667</v>
+        <v>0.08514033333333333</v>
       </c>
       <c r="N37">
-        <v>0.201353</v>
+        <v>0.255421</v>
       </c>
       <c r="O37">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732255</v>
       </c>
       <c r="P37">
-        <v>0.0004659077893484909</v>
+        <v>0.0004808501318732254</v>
       </c>
       <c r="Q37">
-        <v>0.383276240912</v>
+        <v>0.6332602052601112</v>
       </c>
       <c r="R37">
-        <v>3.449486168207999</v>
+        <v>5.699341847341</v>
       </c>
       <c r="S37">
-        <v>1.060736793960025E-05</v>
+        <v>3.77422836882556E-05</v>
       </c>
       <c r="T37">
-        <v>1.060736793960025E-05</v>
+        <v>3.77422836882556E-05</v>
       </c>
     </row>
   </sheetData>
